--- a/excels/herolist.xlsx
+++ b/excels/herolist.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\dota-ts-template\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E9722E-724D-413C-919A-F93B0A4B75FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
+    <t>英雄名字</t>
+  </si>
+  <si>
+    <t>是否激活</t>
+  </si>
+  <si>
+    <t>如果是这种两列的数据，vertical_keys这个key不可更改！</t>
+  </si>
+  <si>
+    <t>vertical_keys</t>
+  </si>
+  <si>
     <t>npc_dota_hero_ancient_apparition</t>
   </si>
   <si>
@@ -382,53 +383,373 @@
   </si>
   <si>
     <t>npc_dota_hero_void_spirit</t>
-  </si>
-  <si>
-    <t>英雄名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否激活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vertical_keys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是这种两列的数据，vertical_keys这个key不可更改！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -436,24 +757,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,7 +1109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -537,7 +1144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -711,998 +1318,993 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>